--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="H2">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="I2">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="J2">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N2">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q2">
-        <v>52.27558511426066</v>
+        <v>31.764337692619</v>
       </c>
       <c r="R2">
-        <v>470.480266028346</v>
+        <v>285.879039233571</v>
       </c>
       <c r="S2">
-        <v>0.01901809063950258</v>
+        <v>0.01345513407325839</v>
       </c>
       <c r="T2">
-        <v>0.01901809063950258</v>
+        <v>0.01345513407325839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="H3">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="I3">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="J3">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q3">
-        <v>255.5569818158047</v>
+        <v>258.3185599884375</v>
       </c>
       <c r="R3">
-        <v>2300.012836342242</v>
+        <v>2324.867039895937</v>
       </c>
       <c r="S3">
-        <v>0.09297276793951816</v>
+        <v>0.1094217953445038</v>
       </c>
       <c r="T3">
-        <v>0.09297276793951816</v>
+        <v>0.1094217953445038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="H4">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="I4">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="J4">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N4">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O4">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P4">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q4">
-        <v>177.1341745503587</v>
+        <v>125.2435428022767</v>
       </c>
       <c r="R4">
-        <v>1594.207570953228</v>
+        <v>1127.19188522049</v>
       </c>
       <c r="S4">
-        <v>0.06444220145195859</v>
+        <v>0.0530522209064062</v>
       </c>
       <c r="T4">
-        <v>0.06444220145195859</v>
+        <v>0.0530522209064062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.549455</v>
       </c>
       <c r="I5">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="J5">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N5">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q5">
-        <v>155.1167183145394</v>
+        <v>93.246308874145</v>
       </c>
       <c r="R5">
-        <v>1396.050464830855</v>
+        <v>839.2167798673049</v>
       </c>
       <c r="S5">
-        <v>0.05643215283310796</v>
+        <v>0.03949843374287077</v>
       </c>
       <c r="T5">
-        <v>0.05643215283310796</v>
+        <v>0.03949843374287077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.549455</v>
       </c>
       <c r="I6">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="J6">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q6">
         <v>758.3111748054262</v>
@@ -818,10 +818,10 @@
         <v>6824.800573248835</v>
       </c>
       <c r="S6">
-        <v>0.2758769820342593</v>
+        <v>0.3212148990793525</v>
       </c>
       <c r="T6">
-        <v>0.2758769820342593</v>
+        <v>0.3212148990793525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.549455</v>
       </c>
       <c r="I7">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="J7">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N7">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O7">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P7">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q7">
-        <v>525.6081170119877</v>
+        <v>367.6606825442166</v>
       </c>
       <c r="R7">
-        <v>4730.473053107889</v>
+        <v>3308.94614289795</v>
       </c>
       <c r="S7">
-        <v>0.1912185734189967</v>
+        <v>0.1557382944662381</v>
       </c>
       <c r="T7">
-        <v>0.1912185734189967</v>
+        <v>0.1557382944662381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="H8">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="I8">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="J8">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N8">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q8">
-        <v>88.89902147981832</v>
+        <v>55.54122692372798</v>
       </c>
       <c r="R8">
-        <v>800.0911933183648</v>
+        <v>499.8710423135519</v>
       </c>
       <c r="S8">
-        <v>0.03234185986767761</v>
+        <v>0.02352684517095032</v>
       </c>
       <c r="T8">
-        <v>0.03234185986767761</v>
+        <v>0.02352684517095032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="H9">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="I9">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="J9">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q9">
-        <v>434.5961038236783</v>
+        <v>451.6804316137937</v>
       </c>
       <c r="R9">
-        <v>3911.364934413105</v>
+        <v>4065.123884524144</v>
       </c>
       <c r="S9">
-        <v>0.1581079977589512</v>
+        <v>0.1913284270064603</v>
       </c>
       <c r="T9">
-        <v>0.1581079977589512</v>
+        <v>0.1913284270064603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="H10">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="I10">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="J10">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N10">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O10">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P10">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q10">
-        <v>301.2315357875633</v>
+        <v>218.9933912309866</v>
       </c>
       <c r="R10">
-        <v>2711.08382208807</v>
+        <v>1970.94052107888</v>
       </c>
       <c r="S10">
-        <v>0.1095893740560281</v>
+        <v>0.0927639502099596</v>
       </c>
       <c r="T10">
-        <v>0.1095893740560281</v>
+        <v>0.09276395020995963</v>
       </c>
     </row>
   </sheetData>
